--- a/학습자료/단답형/객관식_영어_단어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day02.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>reputable
-1. 평판 좋은, 존경할 만한
-2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
+1. 신뢰, 확신
+2. 평판 좋은, 존경할 만한
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>prestigious
-1. 신뢰, 확신
-2. 고요, 평온
-3. 평판 좋은, 존경할 만한</t>
+1. 자신감 있는
+2. 평판 좋은, 존경할 만한
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>creditable
-1. 평판 좋은, 존경할 만한
-2. 계속하다
-3. 고요, 평온</t>
+1. 만족, 희열
+2. 생기, 활기
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>respectable
-1. 나눠주다, 분배하다
-2. 평판 좋은, 존경할 만한
-3. 계속하다</t>
+1. 자신감 있는
+2. 배열하다, 일렬로 세우다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -510,8 +510,8 @@
         <is>
           <t>venerable
 1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
+2. 만족, 희열
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -525,8 +525,8 @@
         <is>
           <t>confident
 1. 자신감 있는
-2. 신뢰, 확신
-3. 만족, 희열</t>
+2. 계속하다
+3. 침입하다, 난입하다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -539,9 +539,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>assured
-1. 만족, 희열
+1. 배열하다, 일렬로 세우다
 2. 자신감 있는
-3. 나눠주다, 분배하다</t>
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>assertive
-1. 고요, 평온
-2. 만족, 희열
-3. 자신감 있는</t>
+1. 평판 좋은, 존경할 만한
+2. 자신감 있는
+3. 계속하다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3, 자신감 있는</t>
+          <t>2, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>sanguine
-1. 계속하다
-2. 자신감 있는
-3. 침입하다, 난입하다</t>
+1. 자신감 있는
+2. 나눠주다, 분배하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -584,14 +584,14 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>buoyant
-1. 고요, 평온
-2. 계속하다
-3. 자신감 있는</t>
+1. 자신감 있는
+2. 배열하다, 일렬로 세우다
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3, 자신감 있는</t>
+          <t>1, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -600,8 +600,8 @@
         <is>
           <t>line up
 1. 배열하다, 일렬로 세우다
-2. 신뢰, 확신
-3. 평판 좋은, 존경할 만한</t>
+2. 만족, 희열
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -614,14 +614,14 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>arrange
-1. 배열하다, 일렬로 세우다
-2. 고요, 평온
-3. 침입하다, 난입하다</t>
+1. 신뢰, 확신
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
+          <t>2, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -629,14 +629,14 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>array
-1. 평판 좋은, 존경할 만한
-2. 배열하다, 일렬로 세우다
-3. 계속하다</t>
+1. 자신감 있는
+2. 고요, 평온
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
+          <t>3, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -644,14 +644,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>sequence
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
-3. 침입하다, 난입하다</t>
+1. 만족, 희열
+2. 생기, 활기
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
+          <t>3, 배열하다, 일렬로 세우다</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
           <t>align
 1. 만족, 희열
 2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -674,14 +674,14 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>give out
-1. 고요, 평온
-2. 자신감 있는
-3. 나눠주다, 분배하다</t>
+1. 나눠주다, 분배하다
+2. 생기, 활기
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>hand out
-1. 생기, 활기
-2. 나눠주다, 분배하다
-3. 배열하다, 일렬로 세우다</t>
+1. 나눠주다, 분배하다
+2. 계속하다
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -704,26 +704,26 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>give away
-1. 신뢰, 확신
+1. 자신감 있는
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2, 나눠주다, 분배하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>deal out
+1. 평판 좋은, 존경할 만한
 2. 침입하다, 난입하다
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3, 나눠주다, 분배하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>deal out
-1. 침입하다, 난입하다
-2. 배열하다, 일렬로 세우다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>3, 나눠주다, 분배하다</t>
@@ -734,8 +734,8 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>serve out
-1. 침입하다, 난입하다
-2. 만족, 희열
+1. 자신감 있는
+2. 침입하다, 난입하다
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
@@ -750,8 +750,8 @@
         <is>
           <t>carry on
 1. 계속하다
-2. 생기, 활기
-3. 자신감 있는</t>
+2. 나눠주다, 분배하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -764,14 +764,14 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>keep on
-1. 계속하다
-2. 침입하다, 난입하다
-3. 배열하다, 일렬로 세우다</t>
+1. 자신감 있는
+2. 평판 좋은, 존경할 만한
+3. 계속하다</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>3, 계속하다</t>
         </is>
       </c>
     </row>
@@ -779,29 +779,29 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>go on
+1. 계속하다
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1, 계속하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>stick at
 1. 신뢰, 확신
 2. 생기, 활기
 3. 계속하다</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>3, 계속하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>stick at
-1. 만족, 희열
-2. 계속하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>continue
-1. 배열하다, 일렬로 세우다
-2. 계속하다
-3. 신뢰, 확신</t>
+1. 만족, 희열
+2. 신뢰, 확신
+3. 계속하다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2, 계속하다</t>
+          <t>3, 계속하다</t>
         </is>
       </c>
     </row>
@@ -824,14 +824,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>break out
-1. 계속하다
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
+1. 침입하다, 난입하다
+2. 배열하다, 일렬로 세우다
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3, 침입하다, 난입하다</t>
+          <t>1, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -839,14 +839,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>burst into
-1. 침입하다, 난입하다
-2. 만족, 희열
-3. 평판 좋은, 존경할 만한</t>
+1. 나눠주다, 분배하다
+2. 침입하다, 난입하다
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -855,13 +855,13 @@
         <is>
           <t>rush into
 1. 계속하다
-2. 평판 좋은, 존경할 만한
-3. 침입하다, 난입하다</t>
+2. 침입하다, 난입하다
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -869,14 +869,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>invade
-1. 침입하다, 난입하다
-2. 만족, 희열
-3. 배열하다, 일렬로 세우다</t>
+1. 자신감 있는
+2. 침입하다, 난입하다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1, 침입하다, 난입하다</t>
+          <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
@@ -884,86 +884,86 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>trespass
+1. 평판 좋은, 존경할 만한
+2. 고요, 평온
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gratification
 1. 침입하다, 난입하다
 2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gratification
-1. 고요, 평온
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>satisfaction
+1. 생기, 활기
 2. 평판 좋은, 존경할 만한
 3. 만족, 희열</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>3, 만족, 희열</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 계속하다
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contentment
+1. 신뢰, 확신
+2. 자신감 있는
+3. 만족, 희열</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 만족, 희열
+2. 배열하다, 일렬로 세우다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
+1. 배열하다, 일렬로 세우다
 2. 만족, 희열
 3. 나눠주다, 분배하다</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>contentment
-1. 만족, 희열
-2. 배열하다, 일렬로 세우다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
-1. 배열하다, 일렬로 세우다
-2. 나눠주다, 분배하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 자신감 있는
-2. 만족, 희열
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>2, 만족, 희열</t>
@@ -975,7 +975,7 @@
         <is>
           <t>liveliness
 1. 생기, 활기
-2. 나눠주다, 분배하다
+2. 고요, 평온
 3. 계속하다</t>
         </is>
       </c>
@@ -990,8 +990,8 @@
         <is>
           <t>spring
 1. 생기, 활기
-2. 배열하다, 일렬로 세우다
-3. 만족, 희열</t>
+2. 고요, 평온
+3. 계속하다</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1004,29 +1004,29 @@
       <c r="A39" t="inlineStr">
         <is>
           <t>sparkle
+1. 나눠주다, 분배하다
+2. 만족, 희열
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
 1. 배열하다, 일렬로 세우다
 2. 생기, 활기
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 생기, 활기
-2. 고요, 평온
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1034,14 +1034,14 @@
       <c r="A41" t="inlineStr">
         <is>
           <t>vigor
-1. 고요, 평온
-2. 만족, 희열
-3. 생기, 활기</t>
+1. 생기, 활기
+2. 나눠주다, 분배하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3, 생기, 활기</t>
+          <t>1, 생기, 활기</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1049,14 @@
       <c r="A42" t="inlineStr">
         <is>
           <t>confidence
-1. 나눠주다, 분배하다
-2. 신뢰, 확신
-3. 고요, 평온</t>
+1. 신뢰, 확신
+2. 계속하다
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2, 신뢰, 확신</t>
+          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1064,14 +1064,14 @@
       <c r="A43" t="inlineStr">
         <is>
           <t>faith
-1. 계속하다
-2. 신뢰, 확신
-3. 생기, 활기</t>
+1. 생기, 활기
+2. 만족, 희열
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2, 신뢰, 확신</t>
+          <t>3, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
           <t>credence
 1. 신뢰, 확신
 2. 나눠주다, 분배하다
-3. 만족, 희열</t>
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1094,14 +1094,14 @@
       <c r="A45" t="inlineStr">
         <is>
           <t>reliance
-1. 침입하다, 난입하다
-2. 신뢰, 확신
-3. 나눠주다, 분배하다</t>
+1. 신뢰, 확신
+2. 생기, 활기
+3. 만족, 희열</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2, 신뢰, 확신</t>
+          <t>1, 신뢰, 확신</t>
         </is>
       </c>
     </row>
@@ -1110,8 +1110,8 @@
         <is>
           <t>conviction
 1. 신뢰, 확신
-2. 생기, 활기
-3. 자신감 있는</t>
+2. 만족, 희열
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1124,29 +1124,29 @@
       <c r="A47" t="inlineStr">
         <is>
           <t>tranquility
-1. 신뢰, 확신
+1. 나눠주다, 분배하다
+2. 고요, 평온
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>silence
+1. 침입하다, 난입하다
 2. 고요, 평온
 3. 만족, 희열</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>silence
-1. 계속하다
-2. 나눠주다, 분배하다
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>3, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1154,14 +1154,14 @@
       <c r="A49" t="inlineStr">
         <is>
           <t>quiet
-1. 신뢰, 확신
-2. 고요, 평온
-3. 자신감 있는</t>
+1. 고요, 평온
+2. 평판 좋은, 존경할 만한
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2, 고요, 평온</t>
+          <t>1, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1169,14 @@
       <c r="A50" t="inlineStr">
         <is>
           <t>serenity
-1. 평판 좋은, 존경할 만한
-2. 나눠주다, 분배하다
-3. 고요, 평온</t>
+1. 고요, 평온
+2. 배열하다, 일렬로 세우다
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3, 고요, 평온</t>
+          <t>1, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
           <t>composure
 1. 자신감 있는
 2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">

--- a/학습자료/단답형/객관식_영어_단어_Day02.xlsx
+++ b/학습자료/단답형/객관식_영어_단어_Day02.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>reputable
-1. 신뢰, 확신
-2. 평판 좋은, 존경할 만한
-3. 고요, 평온</t>
+1. 평판 좋은, 존경할 만한
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>1, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>prestigious
-1. 자신감 있는
-2. 평판 좋은, 존경할 만한
-3. 침입하다, 난입하다</t>
+1. 배열하다, 일렬로 세우다
+2. 나눠주다, 분배하다
+3. 평판 좋은, 존경할 만한</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 평판 좋은, 존경할 만한</t>
+          <t>3, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,7 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>creditable
-1. 만족, 희열
+1. 나눠주다, 분배하다
 2. 생기, 활기
 3. 평판 좋은, 존경할 만한</t>
         </is>
@@ -494,14 +494,14 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>respectable
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
-3. 평판 좋은, 존경할 만한</t>
+1. 배열하다, 일렬로 세우다
+2. 평판 좋은, 존경할 만한
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>venerable
-1. 평판 좋은, 존경할 만한
-2. 만족, 희열
-3. 신뢰, 확신</t>
+1. 생기, 활기
+2. 평판 좋은, 존경할 만한
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1, 평판 좋은, 존경할 만한</t>
+          <t>2, 평판 좋은, 존경할 만한</t>
         </is>
       </c>
     </row>
@@ -524,29 +524,29 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>confident
+1. 침입하다, 난입하다
+2. 고요, 평온
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>assured
 1. 자신감 있는
 2. 계속하다
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>assured
-1. 배열하다, 일렬로 세우다
-2. 자신감 있는
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -555,13 +555,13 @@
         <is>
           <t>assertive
 1. 평판 좋은, 존경할 만한
-2. 자신감 있는
-3. 계속하다</t>
+2. 나눠주다, 분배하다
+3. 자신감 있는</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 자신감 있는</t>
+          <t>3, 자신감 있는</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
           <t>sanguine
 1. 자신감 있는
 2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
+3. 고요, 평온</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -584,104 +584,104 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>buoyant
-1. 자신감 있는
-2. 배열하다, 일렬로 세우다
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, 자신감 있는</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>line up
-1. 배열하다, 일렬로 세우다
-2. 만족, 희열
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>arrange
-1. 신뢰, 확신
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>array
-1. 자신감 있는
-2. 고요, 평온
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>sequence
-1. 만족, 희열
-2. 생기, 활기
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>3, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>align
-1. 만족, 희열
-2. 배열하다, 일렬로 세우다
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2, 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>give out
 1. 나눠주다, 분배하다
 2. 생기, 활기
 3. 자신감 있는</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3, 자신감 있는</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>line up
+1. 배열하다, 일렬로 세우다
+2. 생기, 활기
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>arrange
+1. 배열하다, 일렬로 세우다
+2. 만족, 희열
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>array
+1. 평판 좋은, 존경할 만한
+2. 배열하다, 일렬로 세우다
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sequence
+1. 나눠주다, 분배하다
+2. 배열하다, 일렬로 세우다
+3. 계속하다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>align
+1. 배열하다, 일렬로 세우다
+2. 신뢰, 확신
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1, 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>give out
+1. 신뢰, 확신
+2. 생기, 활기
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1, 나눠주다, 분배하다</t>
+          <t>3, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -689,14 +689,14 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>hand out
-1. 나눠주다, 분배하다
-2. 계속하다
-3. 고요, 평온</t>
+1. 계속하다
+2. 자신감 있는
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1, 나눠주다, 분배하다</t>
+          <t>3, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -704,14 +704,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>give away
-1. 자신감 있는
-2. 나눠주다, 분배하다
-3. 신뢰, 확신</t>
+1. 생기, 활기
+2. 만족, 희열
+3. 나눠주다, 분배하다</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2, 나눠주다, 분배하다</t>
+          <t>3, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -719,14 +719,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>deal out
-1. 평판 좋은, 존경할 만한
-2. 침입하다, 난입하다
-3. 나눠주다, 분배하다</t>
+1. 나눠주다, 분배하다
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 나눠주다, 분배하다</t>
+          <t>1, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,14 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>serve out
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 나눠주다, 분배하다</t>
+1. 만족, 희열
+2. 나눠주다, 분배하다
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3, 나눠주다, 분배하다</t>
+          <t>2, 나눠주다, 분배하다</t>
         </is>
       </c>
     </row>
@@ -749,14 +749,14 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>carry on
-1. 계속하다
-2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
+1. 평판 좋은, 존경할 만한
+2. 계속하다
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -764,8 +764,8 @@
       <c r="A23" t="inlineStr">
         <is>
           <t>keep on
-1. 자신감 있는
-2. 평판 좋은, 존경할 만한
+1. 생기, 활기
+2. 나눠주다, 분배하다
 3. 계속하다</t>
         </is>
       </c>
@@ -780,8 +780,8 @@
         <is>
           <t>go on
 1. 계속하다
-2. 자신감 있는
-3. 배열하다, 일렬로 세우다</t>
+2. 평판 좋은, 존경할 만한
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -794,7 +794,7 @@
       <c r="A25" t="inlineStr">
         <is>
           <t>stick at
-1. 신뢰, 확신
+1. 고요, 평온
 2. 생기, 활기
 3. 계속하다</t>
         </is>
@@ -809,14 +809,14 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>continue
-1. 만족, 희열
-2. 신뢰, 확신
-3. 계속하다</t>
+1. 자신감 있는
+2. 계속하다
+3. 배열하다, 일렬로 세우다</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3, 계속하다</t>
+          <t>2, 계속하다</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
           <t>break out
 1. 침입하다, 난입하다
 2. 배열하다, 일렬로 세우다
-3. 고요, 평온</t>
+3. 생기, 활기</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -839,344 +839,344 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>burst into
+1. 자신감 있는
+2. 생기, 활기
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>rush into
+1. 배열하다, 일렬로 세우다
+2. 계속하다
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>invade
+1. 침입하다, 난입하다
+2. 자신감 있는
+3. 배열하다, 일렬로 세우다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, 침입하다, 난입하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>trespass
 1. 나눠주다, 분배하다
 2. 침입하다, 난입하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
+3. 자신감 있는</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>2, 침입하다, 난입하다</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>rush into
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gratification
+1. 만족, 희열
+2. 생기, 활기
+3. 신뢰, 확신</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>satisfaction
+1. 만족, 희열
+2. 침입하다, 난입하다
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>contentment
+1. 고요, 평온
+2. 만족, 희열
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>euphoria
+1. 신뢰, 확신
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delight
+1. 생기, 활기
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2, 만족, 희열</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>liveliness
+1. 생기, 활기
+2. 침입하다, 난입하다
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>spring
+1. 생기, 활기
+2. 만족, 희열
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>sparkle
+1. 생기, 활기
+2. 자신감 있는
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vivacity
+1. 고요, 평온
+2. 계속하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vigor
+1. 나눠주다, 분배하다
+2. 침입하다, 난입하다
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3, 생기, 활기</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>confidence
+1. 신뢰, 확신
+2. 자신감 있는
+3. 생기, 활기</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>faith
+1. 신뢰, 확신
+2. 배열하다, 일렬로 세우다
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>credence
 1. 계속하다
+2. 신뢰, 확신
+3. 침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>reliance
+1. 배열하다, 일렬로 세우다
+2. 신뢰, 확신
+3. 나눠주다, 분배하다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>conviction
+1. 배열하다, 일렬로 세우다
+2. 신뢰, 확신
+3. 평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2, 신뢰, 확신</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>tranquility
+1. 배열하다, 일렬로 세우다
 2. 침입하다, 난입하다
 3. 고요, 평온</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>invade
-1. 자신감 있는
-2. 침입하다, 난입하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>trespass
-1. 평판 좋은, 존경할 만한
-2. 고요, 평온
-3. 침입하다, 난입하다</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 침입하다, 난입하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gratification
-1. 침입하다, 난입하다
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>silence
+1. 배열하다, 일렬로 세우다
 2. 계속하다
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>satisfaction
-1. 생기, 활기
-2. 평판 좋은, 존경할 만한
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>contentment
-1. 신뢰, 확신
-2. 자신감 있는
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>3, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>euphoria
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>quiet
+1. 계속하다
+2. 생기, 활기
+3. 고요, 평온</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3, 고요, 평온</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>serenity
 1. 만족, 희열
-2. 배열하다, 일렬로 세우다
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>delight
-1. 배열하다, 일렬로 세우다
-2. 만족, 희열
-3. 나눠주다, 분배하다</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2, 만족, 희열</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>liveliness
-1. 생기, 활기
 2. 고요, 평온
 3. 계속하다</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>spring
-1. 생기, 활기
-2. 고요, 평온
-3. 계속하다</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>sparkle
-1. 나눠주다, 분배하다
-2. 만족, 희열
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>3, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vivacity
-1. 배열하다, 일렬로 세우다
-2. 생기, 활기
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vigor
-1. 생기, 활기
-2. 나눠주다, 분배하다
-3. 평판 좋은, 존경할 만한</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1, 생기, 활기</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>confidence
-1. 신뢰, 확신
-2. 계속하다
-3. 배열하다, 일렬로 세우다</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>faith
-1. 생기, 활기
-2. 만족, 희열
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>3, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>credence
-1. 신뢰, 확신
-2. 나눠주다, 분배하다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>reliance
-1. 신뢰, 확신
-2. 생기, 활기
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>conviction
-1. 신뢰, 확신
-2. 만족, 희열
-3. 고요, 평온</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1, 신뢰, 확신</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>tranquility
-1. 나눠주다, 분배하다
-2. 고요, 평온
-3. 자신감 있는</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>silence
-1. 침입하다, 난입하다
-2. 고요, 평온
-3. 만족, 희열</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>quiet
-1. 고요, 평온
-2. 평판 좋은, 존경할 만한
-3. 신뢰, 확신</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1, 고요, 평온</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>serenity
-1. 고요, 평온
-2. 배열하다, 일렬로 세우다
-3. 생기, 활기</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1, 고요, 평온</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1184,14 @@
       <c r="A51" t="inlineStr">
         <is>
           <t>composure
-1. 자신감 있는
-2. 고요, 평온
-3. 평판 좋은, 존경할 만한</t>
+1. 고요, 평온
+2. 나눠주다, 분배하다
+3. 신뢰, 확신</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2, 고요, 평온</t>
+          <t>1, 고요, 평온</t>
         </is>
       </c>
     </row>
